--- a/spec/ASW/Eng/ETS/CoETS/CoETS_TrqCalc/CoETS_TrqCalc.xlsx
+++ b/spec/ASW/Eng/ETS/CoETS/CoETS_TrqCalc/CoETS_TrqCalc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\cm\Unitfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\ETS\CoETS\CoETS_TrqCalc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1E728A-8F39-4BDA-97A9-68E28248061F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3BC0B5-2D56-4541-B274-9097D9989300}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -70,6 +70,313 @@
   </si>
   <si>
     <t>InitialValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_trqCrSCurr</t>
+  </si>
+  <si>
+    <t>[1 1]</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>application parameter for lead torque order to engine for rail pressure control（crankshaft torque）</t>
+  </si>
+  <si>
+    <t>SpdGov_trqFlt</t>
+  </si>
+  <si>
+    <t>filtered setpoint torque of SpdGov</t>
+  </si>
+  <si>
+    <t>SpdGov_st</t>
+  </si>
+  <si>
+    <t>status speed control SpdGov</t>
+  </si>
+  <si>
+    <t>EngDem_trqInrLim</t>
+  </si>
+  <si>
+    <t>Resulting limiting torque (inner engine torque)</t>
+  </si>
+  <si>
+    <t>EngDem_trqInrLimLead</t>
+  </si>
+  <si>
+    <t>inner engine limted lead torque</t>
+  </si>
+  <si>
+    <t>SpdGov_trqLead</t>
+  </si>
+  <si>
+    <t>lead torque of SpdGov on the air path</t>
+  </si>
+  <si>
+    <t>PT_trqCrSLead</t>
+  </si>
+  <si>
+    <t>application parameter for lead torque order to engine（crankshaft torque）</t>
+  </si>
+  <si>
+    <t>PT_trqCrSDes</t>
+  </si>
+  <si>
+    <t>Application parameter for requested propulsion torque to engine(crankshaft torque)</t>
+  </si>
+  <si>
+    <t>RngMod_trqCrSMin</t>
+  </si>
+  <si>
+    <t>minimal crankshaft torque</t>
+  </si>
+  <si>
+    <t>EngDem_trqInrLimSlow</t>
+  </si>
+  <si>
+    <t>inner engine limted torque for Slow Path</t>
+  </si>
+  <si>
+    <t>SpdGov_trqSet</t>
+  </si>
+  <si>
+    <t>Set point torque of SpdGov on the fuel path</t>
+  </si>
+  <si>
+    <t>CoPT_trqDesCompEng</t>
+  </si>
+  <si>
+    <t>Application parameter for engine torque desired for compensation</t>
+  </si>
+  <si>
+    <t>CoVeh_trqDesCompNoFl</t>
+  </si>
+  <si>
+    <t>compensation torque with the shares,which not slur by the drive behaviour filter</t>
+  </si>
+  <si>
+    <t>PT_trqCrSPTPrt</t>
+  </si>
+  <si>
+    <t>Application parameter for powertrain protection train protection torque(crankshaft torque)</t>
+  </si>
+  <si>
+    <t>RngMod_trqMin</t>
+  </si>
+  <si>
+    <t>Drag torque (minimum torque)</t>
+  </si>
+  <si>
+    <t>VMD_stBrkDes</t>
+  </si>
+  <si>
+    <t>Application parameter for torque status information</t>
+  </si>
+  <si>
+    <t>CoVMD_trqLLim</t>
+  </si>
+  <si>
+    <t>propulsion torque of longitudinal limter</t>
+  </si>
+  <si>
+    <t>AccPed_rTrq</t>
+  </si>
+  <si>
+    <t>Total drive train ratio of engine - wheel</t>
+  </si>
+  <si>
+    <t>CoVeh_trqDesCompVeh</t>
+  </si>
+  <si>
+    <t>Signal for compensation correction of wheel torque level (signal 1)</t>
+  </si>
+  <si>
+    <t>PT_trqLos</t>
+  </si>
+  <si>
+    <t>Parameter for loss torque of the drive train</t>
+  </si>
+  <si>
+    <t>CoVeh_trqAcs</t>
+  </si>
+  <si>
+    <t>message for demand of accessories</t>
+  </si>
+  <si>
+    <t>CoETS_trqTSEAEngMax</t>
+  </si>
+  <si>
+    <t>torque request to engine intervention decrement(Max)</t>
+  </si>
+  <si>
+    <t>CoETS_trqTSEAEngMin</t>
+  </si>
+  <si>
+    <t>torque request to engine intervention increment(Min)</t>
+  </si>
+  <si>
+    <t>PT_trqCrSDCS</t>
+  </si>
+  <si>
+    <t>crankshaft torque for request decrcment</t>
+  </si>
+  <si>
+    <t>CoETS_trqInrCurr</t>
+  </si>
+  <si>
+    <t>Inner torque current value</t>
+  </si>
+  <si>
+    <t>CoETS_trqInrCurrFast</t>
+  </si>
+  <si>
+    <t>Inner desired torque (fast path) calculated from CoPT_trqCurrEng [Nm]</t>
+  </si>
+  <si>
+    <t>CoETS_trqInrLead</t>
+  </si>
+  <si>
+    <t>desired lead (inner) torque (without Filter with reserve)</t>
+  </si>
+  <si>
+    <t>CoETS_trqInrLeadFast</t>
+  </si>
+  <si>
+    <t>Inner torque desired value (fast signal path) generated out of CoPT_trqLeadEng</t>
+  </si>
+  <si>
+    <t>CoETS_stInrDesBrk</t>
+  </si>
+  <si>
+    <t>Negative torque status for inner torque</t>
+  </si>
+  <si>
+    <t>CoETS_trqSpdGovLim</t>
+  </si>
+  <si>
+    <t>Inner engine limitation torque for EISGov</t>
+  </si>
+  <si>
+    <t>CoETS_trqLlim</t>
+  </si>
+  <si>
+    <t>Longitudinal limitation for inner engine torque</t>
+  </si>
+  <si>
+    <t>CoETS_trqInrLtd</t>
+  </si>
+  <si>
+    <t>inner torque set value after limitation, before AS</t>
+  </si>
+  <si>
+    <t>CoETS_trqUnFltLtd</t>
+  </si>
+  <si>
+    <t>Limited idle speed governor torque</t>
+  </si>
+  <si>
+    <t>CoETS_trqInrSet_mp</t>
+  </si>
+  <si>
+    <t>Intermediate inner torque for the set path without filteration</t>
+  </si>
+  <si>
+    <t>CoETS_trqInrSetSlow</t>
+  </si>
+  <si>
+    <t>Filtered inner torque ( positive torque) desired value (standard signal path) generated out of CoPT_trqDesEng</t>
+  </si>
+  <si>
+    <t>CoETS_trqUnFltLtdSet</t>
+  </si>
+  <si>
+    <t>Compensation torque of the accessories</t>
+  </si>
+  <si>
+    <t>CoETS_trqInrLtdPre_mp</t>
+  </si>
+  <si>
+    <t>inner set torque after limitation, before active surge damper</t>
+  </si>
+  <si>
+    <t>CoETS_trqUnFltSet</t>
+  </si>
+  <si>
+    <t>Compensation torque of "loss torque compensation" to bypass filter influences on the set path which is partly compensated</t>
+  </si>
+  <si>
+    <t>CoETS_trqInrLimSet</t>
+  </si>
+  <si>
+    <t>Limitation torque without the part of the speed governor</t>
+  </si>
+  <si>
+    <t>CoETS_trqInrDesNTC</t>
+  </si>
+  <si>
+    <t>Additional desired engine friction Nm</t>
+  </si>
+  <si>
+    <t>CoETS_trqInrLim</t>
+  </si>
+  <si>
+    <t>Limitation torque (inner engine torque)</t>
+  </si>
+  <si>
+    <t>CoETS_trqLlim_mp</t>
+  </si>
+  <si>
+    <t>CoETS_trqMaxOfsBrkDes_C</t>
+  </si>
+  <si>
+    <t>Max offset torque</t>
+  </si>
+  <si>
+    <t>CoETS_trqMinOfsBrkDes_C</t>
+  </si>
+  <si>
+    <t>Min offset torque</t>
+  </si>
+  <si>
+    <t>DCSOVRDSENGPRT_SY</t>
+  </si>
+  <si>
+    <t>Drag control system overrides engine protection</t>
+  </si>
+  <si>
+    <t>ENGPRT_OVRDS_DCS</t>
+  </si>
+  <si>
+    <t>PTPRTOVRDSSPDGOV_SY</t>
+  </si>
+  <si>
+    <t>powertrain protection overrides speed control</t>
+  </si>
+  <si>
+    <t>SPDGOV_OVRDS_PTPRT</t>
+  </si>
+  <si>
+    <t>Torq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratio_100</t>
+  </si>
+  <si>
+    <t>State4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,6 +808,621 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3267</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3267</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-3267</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3267</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>65535</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5">
+        <v>-100</v>
+      </c>
+      <c r="C19" s="5">
+        <v>100</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C25" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -510,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,6 +1476,419 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>4294967295</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-3276.8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3276.7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +1898,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,6 +1941,58 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,7 +2004,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,8 +2044,57 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="6"/>
+      <c r="A3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="5">
+        <v>-3276</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3276</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E4" s="6"/>
@@ -726,15 +2162,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="5" customWidth="1"/>
     <col min="3" max="3" width="10.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" customWidth="1"/>
@@ -759,8 +2195,65 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>